--- a/Code/Results/Cases/Case_2_136/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_136/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7134469550187248</v>
+        <v>0.2231376440773829</v>
       </c>
       <c r="C2">
-        <v>0.09999852683813515</v>
+        <v>0.04889604927413416</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.3577008440100471</v>
+        <v>0.1788266674977166</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.1703354544129851</v>
+        <v>0.3111141937561257</v>
       </c>
       <c r="H2">
-        <v>0.1884968534909959</v>
+        <v>0.4945810236140389</v>
       </c>
       <c r="I2">
-        <v>0.1551532875329471</v>
+        <v>0.3793677714397212</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7449402867590891</v>
+        <v>0.2306778499828965</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5641651076794858</v>
+        <v>0.202850923048203</v>
       </c>
       <c r="N2">
-        <v>0.6397168858401621</v>
+        <v>1.19242331793113</v>
       </c>
       <c r="O2">
-        <v>0.705073088676329</v>
+        <v>1.541002427154922</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.623800356765571</v>
+        <v>0.1948131132054129</v>
       </c>
       <c r="C3">
-        <v>0.09058045132992021</v>
+        <v>0.04578998727642869</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3117572156280062</v>
+        <v>0.1673073147037982</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.1676351206696083</v>
+        <v>0.3135636137168873</v>
       </c>
       <c r="H3">
-        <v>0.1919720594724055</v>
+        <v>0.4986741276632785</v>
       </c>
       <c r="I3">
-        <v>0.16050499022964</v>
+        <v>0.3838434522605212</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6544741205893558</v>
+        <v>0.2016878197841692</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4889183613176371</v>
+        <v>0.1813066637136913</v>
       </c>
       <c r="N3">
-        <v>0.6639329598123496</v>
+        <v>1.203389232103483</v>
       </c>
       <c r="O3">
-        <v>0.7063408086918628</v>
+        <v>1.554568244127665</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5686762969735639</v>
+        <v>0.1773689323459848</v>
       </c>
       <c r="C4">
-        <v>0.0847857194078756</v>
+        <v>0.04386811979645699</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.2840178340945769</v>
+        <v>0.1603589720155654</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.1664783236452578</v>
+        <v>0.315298622954252</v>
       </c>
       <c r="H4">
-        <v>0.1944376357118998</v>
+        <v>0.5013908483636484</v>
       </c>
       <c r="I4">
-        <v>0.1641754427108921</v>
+        <v>0.3867976588554782</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5988244637284055</v>
+        <v>0.18380753118538</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4429976164874461</v>
+        <v>0.168125745538859</v>
       </c>
       <c r="N4">
-        <v>0.6795981766186792</v>
+        <v>1.21053067326293</v>
       </c>
       <c r="O4">
-        <v>0.7088695975058954</v>
+        <v>1.56380694433102</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5461883384241446</v>
+        <v>0.1702475059569792</v>
       </c>
       <c r="C5">
-        <v>0.08242074242355102</v>
+        <v>0.04308128116201715</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.2728201128130294</v>
+        <v>0.1575586467702692</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.1661269316054756</v>
+        <v>0.3160636909006627</v>
       </c>
       <c r="H5">
-        <v>0.1955232271949683</v>
+        <v>0.5025491472004049</v>
       </c>
       <c r="I5">
-        <v>0.1657645472103493</v>
+        <v>0.3880533381300157</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5761165012178253</v>
+        <v>0.1765014538777336</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4243443898027905</v>
+        <v>0.1627663993555899</v>
       </c>
       <c r="N5">
-        <v>0.6861775054257713</v>
+        <v>1.21354360313213</v>
       </c>
       <c r="O5">
-        <v>0.7103220661840055</v>
+        <v>1.567800351858097</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5424526360087896</v>
+        <v>0.1690642412153807</v>
       </c>
       <c r="C6">
-        <v>0.08202780812192856</v>
+        <v>0.04295040728445798</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.2709668226684485</v>
+        <v>0.1570955338275866</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.1660756603168849</v>
+        <v>0.3161942333241186</v>
       </c>
       <c r="H6">
-        <v>0.195708298521545</v>
+        <v>0.5027445759211915</v>
       </c>
       <c r="I6">
-        <v>0.1660339613421087</v>
+        <v>0.3882649718562483</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5723439105893249</v>
+        <v>0.1752871086026033</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4212503445349896</v>
+        <v>0.1618772102325039</v>
       </c>
       <c r="N6">
-        <v>0.6872816811967368</v>
+        <v>1.214050104496266</v>
       </c>
       <c r="O6">
-        <v>0.7105882159474533</v>
+        <v>1.568477256626522</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5683731208511347</v>
+        <v>0.1772729413905836</v>
       </c>
       <c r="C7">
-        <v>0.08475383969654615</v>
+        <v>0.04385752298590972</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.2838664026304585</v>
+        <v>0.1603210797952173</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.1664731065003906</v>
+        <v>0.315308706019735</v>
       </c>
       <c r="H7">
-        <v>0.1944519523531767</v>
+        <v>0.5014062621843181</v>
       </c>
       <c r="I7">
-        <v>0.1641965001832215</v>
+        <v>0.3868143836030278</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5985183443568047</v>
+        <v>0.1837090780645951</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4427458241283446</v>
+        <v>0.1680534188892508</v>
       </c>
       <c r="N7">
-        <v>0.679686121656804</v>
+        <v>1.210570890642249</v>
       </c>
       <c r="O7">
-        <v>0.7088875009528834</v>
+        <v>1.563859875477362</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6825509417434432</v>
+        <v>0.213382595068083</v>
       </c>
       <c r="C8">
-        <v>0.09675331233334816</v>
+        <v>0.04782816160599168</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3417545103188573</v>
+        <v>0.1748288443796184</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.1692966464514996</v>
+        <v>0.3119107599396358</v>
       </c>
       <c r="H8">
-        <v>0.1896246551941871</v>
+        <v>0.4959501006555698</v>
       </c>
       <c r="I8">
-        <v>0.1569167185414599</v>
+        <v>0.3808681974101571</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7137662104524054</v>
+        <v>0.2206990292187356</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5381549859335024</v>
+        <v>0.1954126776306566</v>
       </c>
       <c r="N8">
-        <v>0.6478984296785306</v>
+        <v>1.196119652352536</v>
       </c>
       <c r="O8">
-        <v>0.7051357167925119</v>
+        <v>1.545491165605753</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9060243235213079</v>
+        <v>0.2837559710762037</v>
       </c>
       <c r="C9">
-        <v>0.1202173837119318</v>
+        <v>0.05549614104037914</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.459577561949402</v>
+        <v>0.2042753025011095</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.1790951096032529</v>
+        <v>0.3070837628436891</v>
       </c>
       <c r="H9">
-        <v>0.1829126319023615</v>
+        <v>0.4868641692390341</v>
       </c>
       <c r="I9">
-        <v>0.1458474611644238</v>
+        <v>0.370843814341514</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9391699919921734</v>
+        <v>0.292581514181677</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7280069518106203</v>
+        <v>0.2494389774421819</v>
       </c>
       <c r="N9">
-        <v>0.5920999438809176</v>
+        <v>1.17101789557578</v>
       </c>
       <c r="O9">
-        <v>0.7125258848048475</v>
+        <v>1.516688270905007</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.070276921236001</v>
+        <v>0.3351724137824874</v>
       </c>
       <c r="C10">
-        <v>0.1374597084834051</v>
+        <v>0.06105605197505781</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.5496202282614604</v>
+        <v>0.2265309612139887</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.1893074125696614</v>
+        <v>0.3046613552039048</v>
       </c>
       <c r="H10">
-        <v>0.1798378231607316</v>
+        <v>0.4811705301362394</v>
       </c>
       <c r="I10">
-        <v>0.1398952821058224</v>
+        <v>0.3644770313019627</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.104753458209444</v>
+        <v>0.3449756374940307</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8699566245086743</v>
+        <v>0.2893636312822849</v>
       </c>
       <c r="N10">
-        <v>0.5554046327059297</v>
+        <v>1.154544889502063</v>
       </c>
       <c r="O10">
-        <v>0.7281989717196922</v>
+        <v>1.499932977249387</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.145093140125368</v>
+        <v>0.3584968044839343</v>
       </c>
       <c r="C11">
-        <v>0.1453151469600868</v>
+        <v>0.06356908509640391</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.591542067796297</v>
+        <v>0.2367936162133049</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.1947050208301064</v>
+        <v>0.3038043828044508</v>
       </c>
       <c r="H11">
-        <v>0.1788837836453681</v>
+        <v>0.4787931427263246</v>
       </c>
       <c r="I11">
-        <v>0.1377136378381181</v>
+        <v>0.3617975124120214</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.180159974570245</v>
+        <v>0.3687166234080053</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.935256184352923</v>
+        <v>0.3075775304692669</v>
       </c>
       <c r="N11">
-        <v>0.5397183145771791</v>
+        <v>1.147477642717909</v>
       </c>
       <c r="O11">
-        <v>0.7378473305490445</v>
+        <v>1.493268644957723</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.173444744667819</v>
+        <v>0.367319321488452</v>
       </c>
       <c r="C12">
-        <v>0.1482924372833168</v>
+        <v>0.06451833915025418</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6075731488053719</v>
+        <v>0.2406999177760554</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.1968657248040415</v>
+        <v>0.3035151744121194</v>
       </c>
       <c r="H12">
-        <v>0.1785901687060516</v>
+        <v>0.4779234427408383</v>
       </c>
       <c r="I12">
-        <v>0.1369678275358837</v>
+        <v>0.3608140370905488</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.208733297712627</v>
+        <v>0.3776928675058002</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9601043858694354</v>
+        <v>0.3144821079294715</v>
       </c>
       <c r="N12">
-        <v>0.5339296645629119</v>
+        <v>1.144862729199254</v>
       </c>
       <c r="O12">
-        <v>0.7418891709109516</v>
+        <v>1.490882861965417</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.167337708497939</v>
+        <v>0.365419684653375</v>
       </c>
       <c r="C13">
-        <v>0.1476510933637059</v>
+        <v>0.06431400678539489</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6041133212205239</v>
+        <v>0.2398577314522043</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.1963950433813437</v>
+        <v>0.3035758890133238</v>
       </c>
       <c r="H13">
-        <v>0.1786503332364049</v>
+        <v>0.4781093890864057</v>
       </c>
       <c r="I13">
-        <v>0.1371248007923427</v>
+        <v>0.3610244579760362</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.202578584985247</v>
+        <v>0.3757603016329369</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9547472420026679</v>
+        <v>0.3129947575717651</v>
       </c>
       <c r="N13">
-        <v>0.5351695090711601</v>
+        <v>1.145423171554199</v>
       </c>
       <c r="O13">
-        <v>0.7410009903574206</v>
+        <v>1.491390549759274</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.147425198030675</v>
+        <v>0.3592228402818307</v>
       </c>
       <c r="C14">
-        <v>0.1455600327253705</v>
+        <v>0.06364722871110473</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.5928577163596458</v>
+        <v>0.2371145871768903</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.1948803922460485</v>
+        <v>0.3037798813730106</v>
       </c>
       <c r="H14">
-        <v>0.1788582497062094</v>
+        <v>0.4787209795169929</v>
       </c>
       <c r="I14">
-        <v>0.1376506417900671</v>
+        <v>0.3617159758321229</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.182510307548114</v>
+        <v>0.3694553870460595</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9372979448321033</v>
+        <v>0.3081454271284585</v>
       </c>
       <c r="N14">
-        <v>0.5392390045803523</v>
+        <v>1.147261283767669</v>
       </c>
       <c r="O14">
-        <v>0.7381719198608749</v>
+        <v>1.493069601571648</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.135231055232936</v>
+        <v>0.3554257856096115</v>
       </c>
       <c r="C15">
-        <v>0.1442795653392039</v>
+        <v>0.06323849690981831</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.5859842307748977</v>
+        <v>0.2354369484894363</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.1939680932082126</v>
+        <v>0.3039094331138088</v>
       </c>
       <c r="H15">
-        <v>0.1789945297979614</v>
+        <v>0.4790995762616959</v>
       </c>
       <c r="I15">
-        <v>0.1379833398730774</v>
+        <v>0.3621436145825498</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.170220528107279</v>
+        <v>0.365591612226325</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9266259654456803</v>
+        <v>0.3051760287589929</v>
       </c>
       <c r="N15">
-        <v>0.5417516119912094</v>
+        <v>1.148395163096986</v>
       </c>
       <c r="O15">
-        <v>0.7364903899901236</v>
+        <v>1.494116026039023</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.065389991006924</v>
+        <v>0.3336467511101375</v>
       </c>
       <c r="C16">
-        <v>0.1369466507096178</v>
+        <v>0.06089148931559407</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.5469013840670627</v>
+        <v>0.2258630711663585</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.1889705223406253</v>
+        <v>0.3047222969981576</v>
       </c>
       <c r="H16">
-        <v>0.1799094325937887</v>
+        <v>0.4813301760893722</v>
       </c>
       <c r="I16">
-        <v>0.1400488374053133</v>
+        <v>0.3646565085588058</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.099827676239784</v>
+        <v>0.3434221845077161</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8657051181463302</v>
+        <v>0.2881743470690239</v>
       </c>
       <c r="N16">
-        <v>0.5564505869844005</v>
+        <v>1.155015329560953</v>
       </c>
       <c r="O16">
-        <v>0.727621299828229</v>
+        <v>1.500387790578657</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.022573979598349</v>
+        <v>0.3202689286002567</v>
       </c>
       <c r="C17">
-        <v>0.1324517935728835</v>
+        <v>0.05944749340980593</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5231838557240707</v>
+        <v>0.2200253726024215</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.1861032400589764</v>
+        <v>0.3052837674781799</v>
       </c>
       <c r="H17">
-        <v>0.1805871655888822</v>
+        <v>0.4827530359709442</v>
       </c>
       <c r="I17">
-        <v>0.1414539338381751</v>
+        <v>0.366253627194979</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.056669531705126</v>
+        <v>0.3297976713468245</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8285293064442953</v>
+        <v>0.2777576037814242</v>
       </c>
       <c r="N17">
-        <v>0.5657303661161031</v>
+        <v>1.159185787179776</v>
       </c>
       <c r="O17">
-        <v>0.7228435108374214</v>
+        <v>1.504480709409052</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9979560518916628</v>
+        <v>0.312568254002656</v>
       </c>
       <c r="C18">
-        <v>0.1298675243460679</v>
+        <v>0.05861542335243541</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5096314597925584</v>
+        <v>0.2166807049992627</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.1845242893326144</v>
+        <v>0.305629765677395</v>
       </c>
       <c r="H18">
-        <v>0.1810186023527862</v>
+        <v>0.4835914466087416</v>
       </c>
       <c r="I18">
-        <v>0.1423113244523826</v>
+        <v>0.3671926485228951</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.031853370896215</v>
+        <v>0.3219524553597353</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8072140496057614</v>
+        <v>0.2717710669312936</v>
       </c>
       <c r="N18">
-        <v>0.5711621700326752</v>
+        <v>1.161624660367085</v>
       </c>
       <c r="O18">
-        <v>0.7203308643926789</v>
+        <v>1.506924986650148</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9896221531639071</v>
+        <v>0.3099599060423941</v>
       </c>
       <c r="C19">
-        <v>0.1289926897658091</v>
+        <v>0.05833343881211306</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.505057661140718</v>
+        <v>0.215550490043988</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.1840014925445885</v>
+        <v>0.3057508720704618</v>
       </c>
       <c r="H19">
-        <v>0.1811717187475779</v>
+        <v>0.4838787569171288</v>
       </c>
       <c r="I19">
-        <v>0.1426099366602251</v>
+        <v>0.3675140879703989</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.023452094972868</v>
+        <v>0.3192947121567329</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8000081490917097</v>
+        <v>0.2697449728828758</v>
       </c>
       <c r="N19">
-        <v>0.5730172879693143</v>
+        <v>1.162457314928115</v>
       </c>
       <c r="O19">
-        <v>0.7195197895749743</v>
+        <v>1.507768054221103</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.027130870854052</v>
+        <v>0.3216936564420791</v>
       </c>
       <c r="C20">
-        <v>0.1329301634058595</v>
+        <v>0.0596013670874953</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.5256992587315352</v>
+        <v>0.2206454567504395</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.1864011374488896</v>
+        <v>0.3052216112848711</v>
       </c>
       <c r="H20">
-        <v>0.1805106858048546</v>
+        <v>0.4825994983173132</v>
       </c>
       <c r="I20">
-        <v>0.1412992321241369</v>
+        <v>0.3660814995514059</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.061262990913349</v>
+        <v>0.3312489340974309</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8324796568734314</v>
+        <v>0.2788659776781728</v>
       </c>
       <c r="N20">
-        <v>0.5647327088543967</v>
+        <v>1.158737681024899</v>
       </c>
       <c r="O20">
-        <v>0.7233275668041586</v>
+        <v>1.50403568123393</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.153273380104508</v>
+        <v>0.3610432773666901</v>
       </c>
       <c r="C21">
-        <v>0.146174149580574</v>
+        <v>0.06384314248690259</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.5961593713382598</v>
+        <v>0.2379197696286894</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.1953220422541122</v>
+        <v>0.3037190049861564</v>
       </c>
       <c r="H21">
-        <v>0.178795312637952</v>
+        <v>0.4785405111969467</v>
       </c>
       <c r="I21">
-        <v>0.1374939706543863</v>
+        <v>0.3615120132675571</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.188404288319049</v>
+        <v>0.3713076761418961</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9424198156226424</v>
+        <v>0.3095695938740519</v>
       </c>
       <c r="N21">
-        <v>0.5380395305139132</v>
+        <v>1.14671972213106</v>
       </c>
       <c r="O21">
-        <v>0.7389921348352289</v>
+        <v>1.4925726809455</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.235836587938849</v>
+        <v>0.3867024337420446</v>
       </c>
       <c r="C22">
-        <v>0.1548455285936257</v>
+        <v>0.06660151054551022</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.6431288505667965</v>
+        <v>0.2493265065342172</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.2018372433035083</v>
+        <v>0.3029428057241432</v>
       </c>
       <c r="H22">
-        <v>0.1780704759069209</v>
+        <v>0.4760658767717416</v>
       </c>
       <c r="I22">
-        <v>0.1354776193830993</v>
+        <v>0.3587074631385967</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.271609884809465</v>
+        <v>0.3974068126132977</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.014983878566575</v>
+        <v>0.3296790853531135</v>
       </c>
       <c r="N22">
-        <v>0.5214799593053243</v>
+        <v>1.13922258493956</v>
       </c>
       <c r="O22">
-        <v>0.7515059158414203</v>
+        <v>1.485884533599943</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.191757670190214</v>
+        <v>0.373013155450991</v>
       </c>
       <c r="C23">
-        <v>0.1502156967854091</v>
+        <v>0.06513060314337338</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6179699018134244</v>
+        <v>0.243227764318533</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.1982943062130218</v>
+        <v>0.3033382175659867</v>
       </c>
       <c r="H23">
-        <v>0.1784197905373688</v>
+        <v>0.477370340966047</v>
       </c>
       <c r="I23">
-        <v>0.1365091018431848</v>
+        <v>0.3601876529735364</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.227188931661573</v>
+        <v>0.3834848495687027</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9761842472611164</v>
+        <v>0.3189423805678757</v>
       </c>
       <c r="N23">
-        <v>0.53023473962309</v>
+        <v>1.143191260899862</v>
       </c>
       <c r="O23">
-        <v>0.7446097847106188</v>
+        <v>1.48938055152928</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.025070708371288</v>
+        <v>0.3210495668033957</v>
       </c>
       <c r="C24">
-        <v>0.1327138928331948</v>
+        <v>0.0595318067047117</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5245617874551556</v>
+        <v>0.2203650808892874</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.1862662422443861</v>
+        <v>0.3052496398357363</v>
       </c>
       <c r="H24">
-        <v>0.1805451323986063</v>
+        <v>0.4826688491771876</v>
       </c>
       <c r="I24">
-        <v>0.1413690186837577</v>
+        <v>0.3661592536195464</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.059186300871005</v>
+        <v>0.3305928564869873</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8306935252115224</v>
+        <v>0.2783648750192427</v>
       </c>
       <c r="N24">
-        <v>0.5651834488940821</v>
+        <v>1.15894014141335</v>
       </c>
       <c r="O24">
-        <v>0.7231079976714483</v>
+        <v>1.504236594389454</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8455821972037825</v>
+        <v>0.2647670335232135</v>
       </c>
       <c r="C25">
-        <v>0.113872546369663</v>
+        <v>0.05343458928889788</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4271576985156429</v>
+        <v>0.1962011253456737</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.1759466430497199</v>
+        <v>0.3081925321140275</v>
       </c>
       <c r="H25">
-        <v>0.1844158318764784</v>
+        <v>0.4891496054573778</v>
       </c>
       <c r="I25">
-        <v>0.1484761462887256</v>
+        <v>0.3733804466501489</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8782221747855488</v>
+        <v>0.2732074337890822</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6762739576345993</v>
+        <v>0.2347829843037488</v>
       </c>
       <c r="N25">
-        <v>0.6064636598293944</v>
+        <v>1.177462472837103</v>
       </c>
       <c r="O25">
-        <v>0.7088226802760857</v>
+        <v>1.523706864350629</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_136/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_136/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2231376440773829</v>
+        <v>0.7134469550188385</v>
       </c>
       <c r="C2">
-        <v>0.04889604927413416</v>
+        <v>0.09999852683843358</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1788266674977166</v>
+        <v>0.3577008440100471</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.3111141937561257</v>
+        <v>0.1703354544130491</v>
       </c>
       <c r="H2">
-        <v>0.4945810236140389</v>
+        <v>0.1884968534909959</v>
       </c>
       <c r="I2">
-        <v>0.3793677714397212</v>
+        <v>0.1551532875329418</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2306778499828965</v>
+        <v>0.7449402867592028</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.202850923048203</v>
+        <v>0.5641651076794858</v>
       </c>
       <c r="N2">
-        <v>1.19242331793113</v>
+        <v>0.6397168858401621</v>
       </c>
       <c r="O2">
-        <v>1.541002427154922</v>
+        <v>0.7050730886763148</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1948131132054129</v>
+        <v>0.6238003567656847</v>
       </c>
       <c r="C3">
-        <v>0.04578998727642869</v>
+        <v>0.09058045133016179</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1673073147037982</v>
+        <v>0.3117572156279991</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.3135636137168873</v>
+        <v>0.1676351206695514</v>
       </c>
       <c r="H3">
-        <v>0.4986741276632785</v>
+        <v>0.1919720594722918</v>
       </c>
       <c r="I3">
-        <v>0.3838434522605212</v>
+        <v>0.1605049902296383</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2016878197841692</v>
+        <v>0.6544741205892421</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1813066637136913</v>
+        <v>0.4889183613176442</v>
       </c>
       <c r="N3">
-        <v>1.203389232103483</v>
+        <v>0.6639329598124135</v>
       </c>
       <c r="O3">
-        <v>1.554568244127665</v>
+        <v>0.7063408086918628</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1773689323459848</v>
+        <v>0.5686762969736492</v>
       </c>
       <c r="C4">
-        <v>0.04386811979645699</v>
+        <v>0.08478571940809587</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1603589720155654</v>
+        <v>0.2840178340945911</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.315298622954252</v>
+        <v>0.166478323645137</v>
       </c>
       <c r="H4">
-        <v>0.5013908483636484</v>
+        <v>0.1944376357120063</v>
       </c>
       <c r="I4">
-        <v>0.3867976588554782</v>
+        <v>0.1641754427108886</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.18380753118538</v>
+        <v>0.5988244637284481</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.168125745538859</v>
+        <v>0.4429976164874461</v>
       </c>
       <c r="N4">
-        <v>1.21053067326293</v>
+        <v>0.679598176618665</v>
       </c>
       <c r="O4">
-        <v>1.56380694433102</v>
+        <v>0.7088695975059665</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1702475059569792</v>
+        <v>0.5461883384242014</v>
       </c>
       <c r="C5">
-        <v>0.04308128116201715</v>
+        <v>0.08242074242375708</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1575586467702692</v>
+        <v>0.2728201128130436</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.3160636909006627</v>
+        <v>0.1661269316054117</v>
       </c>
       <c r="H5">
-        <v>0.5025491472004049</v>
+        <v>0.1955232271949683</v>
       </c>
       <c r="I5">
-        <v>0.3880533381300157</v>
+        <v>0.1657645472103599</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1765014538777336</v>
+        <v>0.5761165012178111</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.1627663993555899</v>
+        <v>0.4243443898027834</v>
       </c>
       <c r="N5">
-        <v>1.21354360313213</v>
+        <v>0.6861775054257642</v>
       </c>
       <c r="O5">
-        <v>1.567800351858097</v>
+        <v>0.7103220661840055</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1690642412153807</v>
+        <v>0.542452636008818</v>
       </c>
       <c r="C6">
-        <v>0.04295040728445798</v>
+        <v>0.08202780812194277</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1570955338275866</v>
+        <v>0.2709668226684414</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.3161942333241186</v>
+        <v>0.166075660316956</v>
       </c>
       <c r="H6">
-        <v>0.5027445759211915</v>
+        <v>0.1957082985214313</v>
       </c>
       <c r="I6">
-        <v>0.3882649718562483</v>
+        <v>0.1660339613421034</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1752871086026033</v>
+        <v>0.5723439105893249</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1618772102325039</v>
+        <v>0.4212503445349896</v>
       </c>
       <c r="N6">
-        <v>1.214050104496266</v>
+        <v>0.6872816811967368</v>
       </c>
       <c r="O6">
-        <v>1.568477256626522</v>
+        <v>0.710588215947439</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1772729413905836</v>
+        <v>0.5683731208509357</v>
       </c>
       <c r="C7">
-        <v>0.04385752298590972</v>
+        <v>0.08475383969653194</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1603210797952173</v>
+        <v>0.2838664026304869</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.315308706019735</v>
+        <v>0.1664731065004474</v>
       </c>
       <c r="H7">
-        <v>0.5014062621843181</v>
+        <v>0.1944519523531767</v>
       </c>
       <c r="I7">
-        <v>0.3868143836030278</v>
+        <v>0.164196500183218</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.1837090780645951</v>
+        <v>0.5985183443569042</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1680534188892508</v>
+        <v>0.4427458241283517</v>
       </c>
       <c r="N7">
-        <v>1.210570890642249</v>
+        <v>0.6796861216568608</v>
       </c>
       <c r="O7">
-        <v>1.563859875477362</v>
+        <v>0.7088875009528692</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.213382595068083</v>
+        <v>0.6825509417435001</v>
       </c>
       <c r="C8">
-        <v>0.04782816160599168</v>
+        <v>0.09675331233358975</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1748288443796184</v>
+        <v>0.3417545103188502</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.3119107599396358</v>
+        <v>0.1692966464515067</v>
       </c>
       <c r="H8">
-        <v>0.4959501006555698</v>
+        <v>0.1896246551940735</v>
       </c>
       <c r="I8">
-        <v>0.3808681974101571</v>
+        <v>0.1569167185414635</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2206990292187356</v>
+        <v>0.7137662104524196</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.1954126776306566</v>
+        <v>0.5381549859335237</v>
       </c>
       <c r="N8">
-        <v>1.196119652352536</v>
+        <v>0.6478984296785839</v>
       </c>
       <c r="O8">
-        <v>1.545491165605753</v>
+        <v>0.7051357167925261</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2837559710762037</v>
+        <v>0.9060243235211942</v>
       </c>
       <c r="C9">
-        <v>0.05549614104037914</v>
+        <v>0.1202173837116618</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.2042753025011095</v>
+        <v>0.4595775619494233</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.3070837628436891</v>
+        <v>0.1790951096032458</v>
       </c>
       <c r="H9">
-        <v>0.4868641692390341</v>
+        <v>0.1829126319023615</v>
       </c>
       <c r="I9">
-        <v>0.370843814341514</v>
+        <v>0.1458474611644203</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.292581514181677</v>
+        <v>0.9391699919920882</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2494389774421819</v>
+        <v>0.7280069518106274</v>
       </c>
       <c r="N9">
-        <v>1.17101789557578</v>
+        <v>0.5920999438809034</v>
       </c>
       <c r="O9">
-        <v>1.516688270905007</v>
+        <v>0.7125258848047906</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3351724137824874</v>
+        <v>1.070276921236001</v>
       </c>
       <c r="C10">
-        <v>0.06105605197505781</v>
+        <v>0.1374597084836751</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2265309612139887</v>
+        <v>0.5496202282614249</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.3046613552039048</v>
+        <v>0.1893074125696543</v>
       </c>
       <c r="H10">
-        <v>0.4811705301362394</v>
+        <v>0.1798378231608382</v>
       </c>
       <c r="I10">
-        <v>0.3644770313019627</v>
+        <v>0.1398952821058188</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3449756374940307</v>
+        <v>1.104753458209444</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.2893636312822849</v>
+        <v>0.8699566245086672</v>
       </c>
       <c r="N10">
-        <v>1.154544889502063</v>
+        <v>0.5554046327058586</v>
       </c>
       <c r="O10">
-        <v>1.499932977249387</v>
+        <v>0.728198971719678</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3584968044839343</v>
+        <v>1.145093140125368</v>
       </c>
       <c r="C11">
-        <v>0.06356908509640391</v>
+        <v>0.1453151469599021</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2367936162133049</v>
+        <v>0.5915420677962686</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.3038043828044508</v>
+        <v>0.1947050208300283</v>
       </c>
       <c r="H11">
-        <v>0.4787931427263246</v>
+        <v>0.1788837836453681</v>
       </c>
       <c r="I11">
-        <v>0.3617975124120214</v>
+        <v>0.1377136378381039</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.3687166234080053</v>
+        <v>1.180159974570273</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3075775304692669</v>
+        <v>0.9352561843529159</v>
       </c>
       <c r="N11">
-        <v>1.147477642717909</v>
+        <v>0.5397183145771649</v>
       </c>
       <c r="O11">
-        <v>1.493268644957723</v>
+        <v>0.7378473305491013</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.367319321488452</v>
+        <v>1.173444744667876</v>
       </c>
       <c r="C12">
-        <v>0.06451833915025418</v>
+        <v>0.1482924372835583</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2406999177760554</v>
+        <v>0.6075731488053577</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.3035151744121194</v>
+        <v>0.1968657248039918</v>
       </c>
       <c r="H12">
-        <v>0.4779234427408383</v>
+        <v>0.1785901687060445</v>
       </c>
       <c r="I12">
-        <v>0.3608140370905488</v>
+        <v>0.1369678275358801</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.3776928675058002</v>
+        <v>1.208733297712541</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3144821079294715</v>
+        <v>0.9601043858694496</v>
       </c>
       <c r="N12">
-        <v>1.144862729199254</v>
+        <v>0.5339296645629048</v>
       </c>
       <c r="O12">
-        <v>1.490882861965417</v>
+        <v>0.7418891709109516</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.365419684653375</v>
+        <v>1.167337708497968</v>
       </c>
       <c r="C13">
-        <v>0.06431400678539489</v>
+        <v>0.147651093363919</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2398577314522043</v>
+        <v>0.6041133212205096</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.3035758890133238</v>
+        <v>0.1963950433813082</v>
       </c>
       <c r="H13">
-        <v>0.4781093890864057</v>
+        <v>0.1786503332364049</v>
       </c>
       <c r="I13">
-        <v>0.3610244579760362</v>
+        <v>0.1371248007923249</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.3757603016329369</v>
+        <v>1.202578584985361</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3129947575717651</v>
+        <v>0.9547472420026679</v>
       </c>
       <c r="N13">
-        <v>1.145423171554199</v>
+        <v>0.5351695090710962</v>
       </c>
       <c r="O13">
-        <v>1.491390549759274</v>
+        <v>0.7410009903574064</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3592228402818307</v>
+        <v>1.147425198030675</v>
       </c>
       <c r="C14">
-        <v>0.06364722871110473</v>
+        <v>0.1455600327251432</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2371145871768903</v>
+        <v>0.5928577163596742</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.3037798813730106</v>
+        <v>0.1948803922460982</v>
       </c>
       <c r="H14">
-        <v>0.4787209795169929</v>
+        <v>0.1788582497062166</v>
       </c>
       <c r="I14">
-        <v>0.3617159758321229</v>
+        <v>0.1376506417900671</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.3694553870460595</v>
+        <v>1.182510307548</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3081454271284585</v>
+        <v>0.9372979448320891</v>
       </c>
       <c r="N14">
-        <v>1.147261283767669</v>
+        <v>0.5392390045802955</v>
       </c>
       <c r="O14">
-        <v>1.493069601571648</v>
+        <v>0.7381719198609318</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3554257856096115</v>
+        <v>1.135231055232964</v>
       </c>
       <c r="C15">
-        <v>0.06323849690981831</v>
+        <v>0.1442795653390903</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2354369484894363</v>
+        <v>0.5859842307749261</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.3039094331138088</v>
+        <v>0.1939680932082837</v>
       </c>
       <c r="H15">
-        <v>0.4790995762616959</v>
+        <v>0.178994529798068</v>
       </c>
       <c r="I15">
-        <v>0.3621436145825498</v>
+        <v>0.1379833398730739</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.365591612226325</v>
+        <v>1.170220528107279</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3051760287589929</v>
+        <v>0.9266259654456874</v>
       </c>
       <c r="N15">
-        <v>1.148395163096986</v>
+        <v>0.5417516119912591</v>
       </c>
       <c r="O15">
-        <v>1.494116026039023</v>
+        <v>0.7364903899901236</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3336467511101375</v>
+        <v>1.065389991006811</v>
       </c>
       <c r="C16">
-        <v>0.06089148931559407</v>
+        <v>0.1369466507093335</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2258630711663585</v>
+        <v>0.5469013840670698</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.3047222969981576</v>
+        <v>0.1889705223406608</v>
       </c>
       <c r="H16">
-        <v>0.4813301760893722</v>
+        <v>0.1799094325937887</v>
       </c>
       <c r="I16">
-        <v>0.3646565085588058</v>
+        <v>0.1400488374053133</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3434221845077161</v>
+        <v>1.099827676239755</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.2881743470690239</v>
+        <v>0.8657051181463302</v>
       </c>
       <c r="N16">
-        <v>1.155015329560953</v>
+        <v>0.5564505869844147</v>
       </c>
       <c r="O16">
-        <v>1.500387790578657</v>
+        <v>0.727621299828229</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3202689286002567</v>
+        <v>1.022573979598292</v>
       </c>
       <c r="C17">
-        <v>0.05944749340980593</v>
+        <v>0.1324517935731251</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.2200253726024215</v>
+        <v>0.5231838557240849</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.3052837674781799</v>
+        <v>0.1861032400589764</v>
       </c>
       <c r="H17">
-        <v>0.4827530359709442</v>
+        <v>0.1805871655889888</v>
       </c>
       <c r="I17">
-        <v>0.366253627194979</v>
+        <v>0.1414539338381573</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3297976713468245</v>
+        <v>1.056669531705126</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2777576037814242</v>
+        <v>0.8285293064442811</v>
       </c>
       <c r="N17">
-        <v>1.159185787179776</v>
+        <v>0.5657303661160213</v>
       </c>
       <c r="O17">
-        <v>1.504480709409052</v>
+        <v>0.7228435108374214</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.312568254002656</v>
+        <v>0.9979560518918049</v>
       </c>
       <c r="C18">
-        <v>0.05861542335243541</v>
+        <v>0.1298675243465368</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.2166807049992627</v>
+        <v>0.5096314597925868</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.305629765677395</v>
+        <v>0.1845242893326073</v>
       </c>
       <c r="H18">
-        <v>0.4835914466087416</v>
+        <v>0.1810186023527791</v>
       </c>
       <c r="I18">
-        <v>0.3671926485228951</v>
+        <v>0.142311324452379</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3219524553597353</v>
+        <v>1.031853370896215</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2717710669312936</v>
+        <v>0.8072140496057685</v>
       </c>
       <c r="N18">
-        <v>1.161624660367085</v>
+        <v>0.5711621700327179</v>
       </c>
       <c r="O18">
-        <v>1.506924986650148</v>
+        <v>0.7203308643926789</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3099599060423941</v>
+        <v>0.9896221531639355</v>
       </c>
       <c r="C19">
-        <v>0.05833343881211306</v>
+        <v>0.1289926897657949</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.215550490043988</v>
+        <v>0.5050576611406896</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.3057508720704618</v>
+        <v>0.1840014925446027</v>
       </c>
       <c r="H19">
-        <v>0.4838787569171288</v>
+        <v>0.1811717187475708</v>
       </c>
       <c r="I19">
-        <v>0.3675140879703989</v>
+        <v>0.1426099366602323</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3192947121567329</v>
+        <v>1.023452094972725</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2697449728828758</v>
+        <v>0.8000081490917168</v>
       </c>
       <c r="N19">
-        <v>1.162457314928115</v>
+        <v>0.5730172879693001</v>
       </c>
       <c r="O19">
-        <v>1.507768054221103</v>
+        <v>0.7195197895749459</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3216936564420791</v>
+        <v>1.027130870853824</v>
       </c>
       <c r="C20">
-        <v>0.0596013670874953</v>
+        <v>0.1329301634057884</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.2206454567504395</v>
+        <v>0.525699258731585</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.3052216112848711</v>
+        <v>0.1864011374488825</v>
       </c>
       <c r="H20">
-        <v>0.4825994983173132</v>
+        <v>0.1805106858048475</v>
       </c>
       <c r="I20">
-        <v>0.3660814995514059</v>
+        <v>0.1412992321241369</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3312489340974309</v>
+        <v>1.061262990913292</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2788659776781728</v>
+        <v>0.8324796568734385</v>
       </c>
       <c r="N20">
-        <v>1.158737681024899</v>
+        <v>0.5647327088543932</v>
       </c>
       <c r="O20">
-        <v>1.50403568123393</v>
+        <v>0.7233275668041728</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3610432773666901</v>
+        <v>1.15327338010465</v>
       </c>
       <c r="C21">
-        <v>0.06384314248690259</v>
+        <v>0.1461741495807729</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2379197696286894</v>
+        <v>0.596159371338274</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.3037190049861564</v>
+        <v>0.1953220422541051</v>
       </c>
       <c r="H21">
-        <v>0.4785405111969467</v>
+        <v>0.178795312637952</v>
       </c>
       <c r="I21">
-        <v>0.3615120132675571</v>
+        <v>0.1374939706543721</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.3713076761418961</v>
+        <v>1.188404288318935</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3095695938740519</v>
+        <v>0.9424198156226637</v>
       </c>
       <c r="N21">
-        <v>1.14671972213106</v>
+        <v>0.538039530513835</v>
       </c>
       <c r="O21">
-        <v>1.4925726809455</v>
+        <v>0.7389921348352146</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3867024337420446</v>
+        <v>1.235836587938735</v>
       </c>
       <c r="C22">
-        <v>0.06660151054551022</v>
+        <v>0.1548455285936257</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2493265065342172</v>
+        <v>0.6431288505667965</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.3029428057241432</v>
+        <v>0.2018372433035083</v>
       </c>
       <c r="H22">
-        <v>0.4760658767717416</v>
+        <v>0.1780704759068072</v>
       </c>
       <c r="I22">
-        <v>0.3587074631385967</v>
+        <v>0.1354776193830958</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.3974068126132977</v>
+        <v>1.271609884809351</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3296790853531135</v>
+        <v>1.014983878566575</v>
       </c>
       <c r="N22">
-        <v>1.13922258493956</v>
+        <v>0.5214799593053812</v>
       </c>
       <c r="O22">
-        <v>1.485884533599943</v>
+        <v>0.7515059158414203</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.373013155450991</v>
+        <v>1.191757670190214</v>
       </c>
       <c r="C23">
-        <v>0.06513060314337338</v>
+        <v>0.1502156967851818</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.243227764318533</v>
+        <v>0.6179699018134102</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.3033382175659867</v>
+        <v>0.1982943062130786</v>
       </c>
       <c r="H23">
-        <v>0.477370340966047</v>
+        <v>0.1784197905374825</v>
       </c>
       <c r="I23">
-        <v>0.3601876529735364</v>
+        <v>0.1365091018431883</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.3834848495687027</v>
+        <v>1.227188931661601</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3189423805678757</v>
+        <v>0.9761842472611093</v>
       </c>
       <c r="N23">
-        <v>1.143191260899862</v>
+        <v>0.5302347396231539</v>
       </c>
       <c r="O23">
-        <v>1.48938055152928</v>
+        <v>0.7446097847106046</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3210495668033957</v>
+        <v>1.025070708371402</v>
       </c>
       <c r="C24">
-        <v>0.0595318067047117</v>
+        <v>0.1327138928331522</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.2203650808892874</v>
+        <v>0.5245617874551556</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.3052496398357363</v>
+        <v>0.1862662422443222</v>
       </c>
       <c r="H24">
-        <v>0.4826688491771876</v>
+        <v>0.1805451323986205</v>
       </c>
       <c r="I24">
-        <v>0.3661592536195464</v>
+        <v>0.1413690186837506</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3305928564869873</v>
+        <v>1.059186300871005</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2783648750192427</v>
+        <v>0.8306935252115295</v>
       </c>
       <c r="N24">
-        <v>1.15894014141335</v>
+        <v>0.5651834488940359</v>
       </c>
       <c r="O24">
-        <v>1.504236594389454</v>
+        <v>0.7231079976714625</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2647670335232135</v>
+        <v>0.8455821972038109</v>
       </c>
       <c r="C25">
-        <v>0.05343458928889788</v>
+        <v>0.1138725463694783</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1962011253456737</v>
+        <v>0.4271576985156358</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.3081925321140275</v>
+        <v>0.175946643049663</v>
       </c>
       <c r="H25">
-        <v>0.4891496054573778</v>
+        <v>0.1844158318764784</v>
       </c>
       <c r="I25">
-        <v>0.3733804466501489</v>
+        <v>0.1484761462887221</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.2732074337890822</v>
+        <v>0.8782221747855772</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2347829843037488</v>
+        <v>0.6762739576346064</v>
       </c>
       <c r="N25">
-        <v>1.177462472837103</v>
+        <v>0.6064636598293944</v>
       </c>
       <c r="O25">
-        <v>1.523706864350629</v>
+        <v>0.7088226802760857</v>
       </c>
     </row>
   </sheetData>
